--- a/StructureDefinition-ext-R5-Condition.stage.xlsx
+++ b/StructureDefinition-ext-R5-Condition.stage.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="149">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -404,15 +404,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes describing condition stages (e.g. Cancer stages).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-stage-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -451,7 +442,7 @@
     <t>Extension.extension:assessment.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalImpression|0.0.1-snapshot-3|ClinicalImpression|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|0.0.1-snapshot-3|DiagnosticReport|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalImpression|ClinicalImpression|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|DiagnosticReport|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation)
 </t>
   </si>
   <si>
@@ -484,12 +475,6 @@
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
-  </si>
-  <si>
-    <t>Codes describing the kind of condition staging (e.g. clinical or pathological).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-condition-stage-type-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -849,8 +834,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.06640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1766,43 +1751,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>119</v>
@@ -1810,13 +1795,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1841,14 +1826,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1917,7 +1902,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>104</v>
@@ -2020,7 +2005,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>106</v>
@@ -2125,7 +2110,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>112</v>
@@ -2168,7 +2153,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2230,7 +2215,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>121</v>
@@ -2256,13 +2241,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2313,7 +2298,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2325,7 +2310,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>119</v>
@@ -2333,13 +2318,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2364,14 +2349,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2440,7 +2425,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2543,7 +2528,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2648,7 +2633,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>112</v>
@@ -2691,7 +2676,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2753,7 +2738,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>121</v>
@@ -2782,10 +2767,10 @@
         <v>122</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2812,32 +2797,32 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
@@ -2848,7 +2833,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>119</v>
@@ -2961,10 +2946,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2987,13 +2972,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3044,7 +3029,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3056,7 +3041,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>119</v>
